--- a/AnleiTile/src/assets/小游戏数值表格.xlsx
+++ b/AnleiTile/src/assets/小游戏数值表格.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
@@ -12,12 +12,12 @@
     <sheet name="可用物品表" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="168">
   <si>
     <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,523 +35,523 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应英雄攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应英雄防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应英雄生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通野怪系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野怪也可以穿装备，如果穿装备的话，把装备的数值加到数值上去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同等级的英雄数值*系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称</t>
+  </si>
+  <si>
+    <t>毒针</t>
+  </si>
+  <si>
+    <t>桧木棒</t>
+  </si>
+  <si>
+    <t>竹枪</t>
+  </si>
+  <si>
+    <t>尖骨头</t>
+  </si>
+  <si>
+    <t>水果刀</t>
+  </si>
+  <si>
+    <t>棍棒</t>
+  </si>
+  <si>
+    <t>かしの杖</t>
+  </si>
+  <si>
+    <t>大锤子</t>
+  </si>
+  <si>
+    <t>石之牙</t>
+  </si>
+  <si>
+    <t>青铜匕首</t>
+  </si>
+  <si>
+    <t>铜剑</t>
+  </si>
+  <si>
+    <t>回旋镖</t>
+  </si>
+  <si>
+    <t>刺棘鞭</t>
+  </si>
+  <si>
+    <t>铁爪</t>
+  </si>
+  <si>
+    <t>石斧</t>
+  </si>
+  <si>
+    <t>铁之杖</t>
+  </si>
+  <si>
+    <t>毒蛾匕首</t>
+  </si>
+  <si>
+    <t>钢刃回旋镖</t>
+  </si>
+  <si>
+    <t>锁镰刀</t>
+  </si>
+  <si>
+    <t>锯刀</t>
+  </si>
+  <si>
+    <t>十字弓</t>
+  </si>
+  <si>
+    <t>雷之杖</t>
+  </si>
+  <si>
+    <t>大金锤</t>
+  </si>
+  <si>
+    <t>钢剑</t>
+  </si>
+  <si>
+    <t>钢之牙</t>
+  </si>
+  <si>
+    <t>杀手耳环</t>
+  </si>
+  <si>
+    <t>天罚之杖</t>
+  </si>
+  <si>
+    <t>帕帕斯之剑</t>
+  </si>
+  <si>
+    <t>魔封之杖</t>
+  </si>
+  <si>
+    <t>蛇剑</t>
+  </si>
+  <si>
+    <t>破邪之剑</t>
+  </si>
+  <si>
+    <t>战斗斧</t>
+  </si>
+  <si>
+    <t>晨星之锤</t>
+  </si>
+  <si>
+    <t>火焰爪</t>
+  </si>
+  <si>
+    <t>微睡之剑</t>
+  </si>
+  <si>
+    <t>理力之杖</t>
+  </si>
+  <si>
+    <t>巨锤</t>
+  </si>
+  <si>
+    <t>石化之杖</t>
+  </si>
+  <si>
+    <t>溶岩之杖</t>
+  </si>
+  <si>
+    <t>火焰回旋镖</t>
+  </si>
+  <si>
+    <t>钢鞭</t>
+  </si>
+  <si>
+    <t>复活之杖</t>
+  </si>
+  <si>
+    <t>隼之剑</t>
+  </si>
+  <si>
+    <t>诱惑之剑</t>
+  </si>
+  <si>
+    <t>魔神金锤</t>
+  </si>
+  <si>
+    <t>冰之刃</t>
+  </si>
+  <si>
+    <t>僵尸杀手</t>
+  </si>
+  <si>
+    <t>妖精之剑</t>
+  </si>
+  <si>
+    <t>雷神之枪</t>
+  </si>
+  <si>
+    <t>屠龙剑</t>
+  </si>
+  <si>
+    <t>恶魔之爪</t>
+  </si>
+  <si>
+    <t>皆杀之剑</t>
+  </si>
+  <si>
+    <t>诸刃之剑</t>
+  </si>
+  <si>
+    <t>恶魔之枪</t>
+  </si>
+  <si>
+    <t>奇迹之剑</t>
+  </si>
+  <si>
+    <t>格林盖姆之鞭</t>
+  </si>
+  <si>
+    <t>吹雪之剑</t>
+  </si>
+  <si>
+    <t>天空之剑</t>
+  </si>
+  <si>
+    <t>巨弩</t>
+  </si>
+  <si>
+    <t>奥利哈根之牙</t>
+  </si>
+  <si>
+    <t>地狱军刀</t>
+  </si>
+  <si>
+    <t>破坏铁球</t>
+  </si>
+  <si>
+    <t>龙之杖</t>
+  </si>
+  <si>
+    <t>金属王之剑</t>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+  </si>
+  <si>
+    <t>布片</t>
+  </si>
+  <si>
+    <t>布衣</t>
+  </si>
+  <si>
+    <t>奴隶之服</t>
+  </si>
+  <si>
+    <t>手织袍</t>
+  </si>
+  <si>
+    <t>旅人之服</t>
+  </si>
+  <si>
+    <t>丝绸围裙</t>
+  </si>
+  <si>
+    <t>皮铠甲</t>
+  </si>
+  <si>
+    <t>皮之腰束</t>
+  </si>
+  <si>
+    <t>丝绸之袍</t>
+  </si>
+  <si>
+    <t>鳞之铠</t>
+  </si>
+  <si>
+    <t>短裤</t>
+  </si>
+  <si>
+    <t>皮裙</t>
+  </si>
+  <si>
+    <t>毛皮披风</t>
+  </si>
+  <si>
+    <t>锁链甲</t>
+  </si>
+  <si>
+    <t>舞女之服</t>
+  </si>
+  <si>
+    <t>史莱姆之服</t>
+  </si>
+  <si>
+    <t>青铜铠甲</t>
+  </si>
+  <si>
+    <t>铁之胸甲</t>
+  </si>
+  <si>
+    <t>性感内裤</t>
+  </si>
+  <si>
+    <t>铁铠甲</t>
+  </si>
+  <si>
+    <t>回避之服</t>
+  </si>
+  <si>
+    <t>钢铁之铠</t>
+  </si>
+  <si>
+    <t>龟壳甲胄</t>
+  </si>
+  <si>
+    <t>安逸之袍</t>
+  </si>
+  <si>
+    <t>蕾丝背心</t>
+  </si>
+  <si>
+    <t>不可思议的马夹</t>
+  </si>
+  <si>
+    <t>魔导士之袍</t>
+  </si>
+  <si>
+    <t>丧尸铠甲</t>
+  </si>
+  <si>
+    <t>银之胸甲</t>
+  </si>
+  <si>
+    <t>秘银铠甲</t>
+  </si>
+  <si>
+    <t>战士的</t>
+  </si>
+  <si>
+    <t>血之铠</t>
+  </si>
+  <si>
+    <t>光之裙</t>
+  </si>
+  <si>
+    <t>龙之铠</t>
+  </si>
+  <si>
+    <t>贤者之袍</t>
+  </si>
+  <si>
+    <t>剑刃铠甲</t>
+  </si>
+  <si>
+    <t>水之羽衣</t>
+  </si>
+  <si>
+    <t>暗之袍</t>
+  </si>
+  <si>
+    <t>魔法之铠</t>
+  </si>
+  <si>
+    <t>丝绸背心</t>
+  </si>
+  <si>
+    <t>恶魔铠甲</t>
+  </si>
+  <si>
+    <t>火焰铠</t>
+  </si>
+  <si>
+    <t>天使紧身衣</t>
+  </si>
+  <si>
+    <t>神秘之铠</t>
+  </si>
+  <si>
+    <t>镜之铠</t>
+  </si>
+  <si>
+    <t>公主之袍</t>
+  </si>
+  <si>
+    <t>天空之铠</t>
+  </si>
+  <si>
+    <t>魔人之铠</t>
+  </si>
+  <si>
+    <t>王者斗篷</t>
+  </si>
+  <si>
+    <t>金属王之铠</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法圣水</t>
+  </si>
+  <si>
+    <t>祈祷戒指</t>
+  </si>
+  <si>
+    <t>生命之石</t>
+  </si>
+  <si>
+    <t>复活珠</t>
+  </si>
+  <si>
+    <t>祝福之杖</t>
+  </si>
+  <si>
+    <t>力之种</t>
+  </si>
+  <si>
+    <t>防御之种</t>
+  </si>
+  <si>
+    <t>速度之种</t>
+  </si>
+  <si>
+    <t>智力之种</t>
+  </si>
+  <si>
+    <t>生命树之种</t>
+  </si>
+  <si>
+    <t>神秘果实</t>
+  </si>
+  <si>
+    <t>小徽章</t>
+  </si>
+  <si>
+    <t>大富翁券</t>
+  </si>
+  <si>
+    <t>幸运券</t>
+  </si>
+  <si>
+    <t>金卡</t>
+  </si>
+  <si>
+    <t>世界树水滴</t>
+  </si>
+  <si>
+    <t>贤者之石</t>
+  </si>
+  <si>
+    <t>战鼓</t>
+  </si>
+  <si>
+    <t>暗之灯</t>
+  </si>
+  <si>
+    <t>拉之神镜</t>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属之铠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命树之种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ahp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>每次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总时间（小时）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应英雄攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应英雄防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应英雄生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通野怪系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>野怪也可以穿装备，如果穿装备的话，把装备的数值加到数值上去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同等级的英雄数值*系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名称</t>
-  </si>
-  <si>
-    <t>毒针</t>
-  </si>
-  <si>
-    <t>桧木棒</t>
-  </si>
-  <si>
-    <t>竹枪</t>
-  </si>
-  <si>
-    <t>尖骨头</t>
-  </si>
-  <si>
-    <t>水果刀</t>
-  </si>
-  <si>
-    <t>棍棒</t>
-  </si>
-  <si>
-    <t>かしの杖</t>
-  </si>
-  <si>
-    <t>大锤子</t>
-  </si>
-  <si>
-    <t>石之牙</t>
-  </si>
-  <si>
-    <t>青铜匕首</t>
-  </si>
-  <si>
-    <t>铜剑</t>
-  </si>
-  <si>
-    <t>回旋镖</t>
-  </si>
-  <si>
-    <t>刺棘鞭</t>
-  </si>
-  <si>
-    <t>铁爪</t>
-  </si>
-  <si>
-    <t>石斧</t>
-  </si>
-  <si>
-    <t>铁之杖</t>
-  </si>
-  <si>
-    <t>毒蛾匕首</t>
-  </si>
-  <si>
-    <t>钢刃回旋镖</t>
-  </si>
-  <si>
-    <t>锁镰刀</t>
-  </si>
-  <si>
-    <t>锯刀</t>
-  </si>
-  <si>
-    <t>十字弓</t>
-  </si>
-  <si>
-    <t>雷之杖</t>
-  </si>
-  <si>
-    <t>大金锤</t>
-  </si>
-  <si>
-    <t>钢剑</t>
-  </si>
-  <si>
-    <t>钢之牙</t>
-  </si>
-  <si>
-    <t>杀手耳环</t>
-  </si>
-  <si>
-    <t>天罚之杖</t>
-  </si>
-  <si>
-    <t>帕帕斯之剑</t>
-  </si>
-  <si>
-    <t>魔封之杖</t>
-  </si>
-  <si>
-    <t>蛇剑</t>
-  </si>
-  <si>
-    <t>破邪之剑</t>
-  </si>
-  <si>
-    <t>战斗斧</t>
-  </si>
-  <si>
-    <t>晨星之锤</t>
-  </si>
-  <si>
-    <t>火焰爪</t>
-  </si>
-  <si>
-    <t>微睡之剑</t>
-  </si>
-  <si>
-    <t>理力之杖</t>
-  </si>
-  <si>
-    <t>巨锤</t>
-  </si>
-  <si>
-    <t>石化之杖</t>
-  </si>
-  <si>
-    <t>溶岩之杖</t>
-  </si>
-  <si>
-    <t>火焰回旋镖</t>
-  </si>
-  <si>
-    <t>钢鞭</t>
-  </si>
-  <si>
-    <t>复活之杖</t>
-  </si>
-  <si>
-    <t>隼之剑</t>
-  </si>
-  <si>
-    <t>诱惑之剑</t>
-  </si>
-  <si>
-    <t>魔神金锤</t>
-  </si>
-  <si>
-    <t>冰之刃</t>
-  </si>
-  <si>
-    <t>僵尸杀手</t>
-  </si>
-  <si>
-    <t>妖精之剑</t>
-  </si>
-  <si>
-    <t>雷神之枪</t>
-  </si>
-  <si>
-    <t>屠龙剑</t>
-  </si>
-  <si>
-    <t>恶魔之爪</t>
-  </si>
-  <si>
-    <t>皆杀之剑</t>
-  </si>
-  <si>
-    <t>诸刃之剑</t>
-  </si>
-  <si>
-    <t>恶魔之枪</t>
-  </si>
-  <si>
-    <t>奇迹之剑</t>
-  </si>
-  <si>
-    <t>格林盖姆之鞭</t>
-  </si>
-  <si>
-    <t>吹雪之剑</t>
-  </si>
-  <si>
-    <t>天空之剑</t>
-  </si>
-  <si>
-    <t>巨弩</t>
-  </si>
-  <si>
-    <t>奥利哈根之牙</t>
-  </si>
-  <si>
-    <t>地狱军刀</t>
-  </si>
-  <si>
-    <t>破坏铁球</t>
-  </si>
-  <si>
-    <t>龙之杖</t>
-  </si>
-  <si>
-    <t>金属王之剑</t>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名</t>
-  </si>
-  <si>
-    <t>布片</t>
-  </si>
-  <si>
-    <t>布衣</t>
-  </si>
-  <si>
-    <t>奴隶之服</t>
-  </si>
-  <si>
-    <t>手织袍</t>
-  </si>
-  <si>
-    <t>旅人之服</t>
-  </si>
-  <si>
-    <t>丝绸围裙</t>
-  </si>
-  <si>
-    <t>皮铠甲</t>
-  </si>
-  <si>
-    <t>皮之腰束</t>
-  </si>
-  <si>
-    <t>丝绸之袍</t>
-  </si>
-  <si>
-    <t>鳞之铠</t>
-  </si>
-  <si>
-    <t>短裤</t>
-  </si>
-  <si>
-    <t>皮裙</t>
-  </si>
-  <si>
-    <t>毛皮披风</t>
-  </si>
-  <si>
-    <t>锁链甲</t>
-  </si>
-  <si>
-    <t>舞女之服</t>
-  </si>
-  <si>
-    <t>史莱姆之服</t>
-  </si>
-  <si>
-    <t>青铜铠甲</t>
-  </si>
-  <si>
-    <t>铁之胸甲</t>
-  </si>
-  <si>
-    <t>性感内裤</t>
-  </si>
-  <si>
-    <t>铁铠甲</t>
-  </si>
-  <si>
-    <t>回避之服</t>
-  </si>
-  <si>
-    <t>钢铁之铠</t>
-  </si>
-  <si>
-    <t>龟壳甲胄</t>
-  </si>
-  <si>
-    <t>安逸之袍</t>
-  </si>
-  <si>
-    <t>蕾丝背心</t>
-  </si>
-  <si>
-    <t>不可思议的马夹</t>
-  </si>
-  <si>
-    <t>魔导士之袍</t>
-  </si>
-  <si>
-    <t>丧尸铠甲</t>
-  </si>
-  <si>
-    <t>银之胸甲</t>
-  </si>
-  <si>
-    <t>秘银铠甲</t>
-  </si>
-  <si>
-    <t>战士的</t>
-  </si>
-  <si>
-    <t>血之铠</t>
-  </si>
-  <si>
-    <t>光之裙</t>
-  </si>
-  <si>
-    <t>龙之铠</t>
-  </si>
-  <si>
-    <t>贤者之袍</t>
-  </si>
-  <si>
-    <t>剑刃铠甲</t>
-  </si>
-  <si>
-    <t>水之羽衣</t>
-  </si>
-  <si>
-    <t>暗之袍</t>
-  </si>
-  <si>
-    <t>魔法之铠</t>
-  </si>
-  <si>
-    <t>丝绸背心</t>
-  </si>
-  <si>
-    <t>恶魔铠甲</t>
-  </si>
-  <si>
-    <t>火焰铠</t>
-  </si>
-  <si>
-    <t>天使紧身衣</t>
-  </si>
-  <si>
-    <t>神秘之铠</t>
-  </si>
-  <si>
-    <t>镜之铠</t>
-  </si>
-  <si>
-    <t>公主之袍</t>
-  </si>
-  <si>
-    <t>天空之铠</t>
-  </si>
-  <si>
-    <t>魔人之铠</t>
-  </si>
-  <si>
-    <t>王者斗篷</t>
-  </si>
-  <si>
-    <t>金属王之铠</t>
-  </si>
-  <si>
-    <t>攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法圣水</t>
-  </si>
-  <si>
-    <t>祈祷戒指</t>
-  </si>
-  <si>
-    <t>生命之石</t>
-  </si>
-  <si>
-    <t>复活珠</t>
-  </si>
-  <si>
-    <t>祝福之杖</t>
-  </si>
-  <si>
-    <t>力之种</t>
-  </si>
-  <si>
-    <t>防御之种</t>
-  </si>
-  <si>
-    <t>速度之种</t>
-  </si>
-  <si>
-    <t>智力之种</t>
-  </si>
-  <si>
-    <t>生命树之种</t>
-  </si>
-  <si>
-    <t>神秘果实</t>
-  </si>
-  <si>
-    <t>小徽章</t>
-  </si>
-  <si>
-    <t>大富翁券</t>
-  </si>
-  <si>
-    <t>幸运券</t>
-  </si>
-  <si>
-    <t>金卡</t>
-  </si>
-  <si>
-    <t>世界树水滴</t>
-  </si>
-  <si>
-    <t>贤者之石</t>
-  </si>
-  <si>
-    <t>战鼓</t>
-  </si>
-  <si>
-    <t>暗之灯</t>
-  </si>
-  <si>
-    <t>拉之神镜</t>
-  </si>
-  <si>
-    <t>生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金属之铠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命树之种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ahp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +559,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,6 +597,14 @@
       <color rgb="FF010005"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -656,18 +664,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,11 +686,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -989,18 +1000,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="M81" sqref="M81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
     <col min="14" max="14" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1017,38 +1030,38 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="E1" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1067,44 +1080,44 @@
         <f>INT(C2/B2)</f>
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="12">
         <f>TRUNC(D2/360,2)</f>
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f>12+2*A2</f>
         <v>14</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f>5+1*A2</f>
         <v>6</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>70+10*A2</f>
         <v>80</v>
       </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
       <c r="K2">
-        <f>G2*0.5</f>
+        <f>H2*0.5</f>
         <v>7</v>
       </c>
       <c r="L2">
-        <f>H2*0.5</f>
+        <f>I2*0.5</f>
         <v>3</v>
       </c>
       <c r="M2">
-        <f>I2*0.5</f>
+        <f>J2*0.5</f>
         <v>40</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="3"/>
+      <c r="N2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
@@ -1122,20 +1135,20 @@
         <f t="shared" ref="D3:D66" si="2">INT(C3/B3)</f>
         <v>5</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F66" si="3">TRUNC(D3/360,2)</f>
+      <c r="G3" s="12">
+        <f t="shared" ref="G3:G66" si="3">TRUNC(D3/360,2)</f>
         <v>0.01</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" si="4">12+2*A3</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="4">12+2*A3</f>
         <v>16</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H66" si="5">5+1*A3</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="5">5+1*A3</f>
         <v>7</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I66" si="6">70+10*A3</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="6">70+10*A3</f>
         <v>90</v>
       </c>
       <c r="N3">
@@ -1161,26 +1174,26 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="12">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="2"/>
+      <c r="N4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
@@ -1198,24 +1211,24 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="12">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
@@ -1233,24 +1246,24 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="12">
         <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
@@ -1268,24 +1281,24 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="F7">
+      <c r="G7" s="12">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="6"/>
         <v>130</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
@@ -1303,24 +1316,24 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="12">
         <f t="shared" si="3"/>
         <v>0.13</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
@@ -1338,24 +1351,24 @@
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="12">
         <f t="shared" si="3"/>
         <v>0.17</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
@@ -1373,24 +1386,24 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="F10">
+      <c r="G10" s="12">
         <f t="shared" si="3"/>
         <v>0.21</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="6"/>
         <v>160</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
@@ -1408,36 +1421,36 @@
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="F11">
+      <c r="G11" s="12">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="K11">
-        <f>G11*0.5</f>
+        <f>H11*0.5</f>
         <v>16</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L61" si="7">H11*0.5</f>
+        <f t="shared" ref="L11:L61" si="7">I11*0.5</f>
         <v>7.5</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11:M61" si="8">I11*0.5</f>
+        <f t="shared" ref="M11:M61" si="8">J11*0.5</f>
         <v>85</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12">
@@ -1455,24 +1468,24 @@
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="12">
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="6"/>
         <v>180</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13">
@@ -1490,24 +1503,24 @@
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="F13">
+      <c r="G13" s="12">
         <f t="shared" si="3"/>
         <v>0.34</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="6"/>
         <v>190</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14">
@@ -1525,19 +1538,19 @@
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="F14">
+      <c r="G14" s="12">
         <f t="shared" si="3"/>
         <v>0.39</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
@@ -1558,19 +1571,19 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="F15">
+      <c r="G15" s="12">
         <f t="shared" si="3"/>
         <v>0.44</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f t="shared" si="6"/>
         <v>210</v>
       </c>
@@ -1591,19 +1604,19 @@
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="F16">
+      <c r="G16" s="12">
         <f t="shared" si="3"/>
         <v>0.49</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="6"/>
         <v>220</v>
       </c>
@@ -1624,19 +1637,19 @@
         <f t="shared" si="2"/>
         <v>197</v>
       </c>
-      <c r="F17">
+      <c r="G17" s="12">
         <f t="shared" si="3"/>
         <v>0.54</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="6"/>
         <v>230</v>
       </c>
@@ -1657,19 +1670,19 @@
         <f t="shared" si="2"/>
         <v>217</v>
       </c>
-      <c r="F18">
+      <c r="G18" s="12">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="6"/>
         <v>240</v>
       </c>
@@ -1690,19 +1703,19 @@
         <f t="shared" si="2"/>
         <v>237</v>
       </c>
-      <c r="F19">
+      <c r="G19" s="12">
         <f t="shared" si="3"/>
         <v>0.65</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="6"/>
         <v>250</v>
       </c>
@@ -1723,19 +1736,19 @@
         <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="F20">
+      <c r="G20" s="12">
         <f t="shared" si="3"/>
         <v>0.71</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f t="shared" si="6"/>
         <v>260</v>
       </c>
@@ -1756,24 +1769,24 @@
         <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="F21">
+      <c r="G21" s="12">
         <f t="shared" si="3"/>
         <v>0.77</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f t="shared" si="6"/>
         <v>270</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21:K61" si="9">G21*0.5</f>
+        <f t="shared" ref="K21:K61" si="9">H21*0.5</f>
         <v>26</v>
       </c>
       <c r="L21">
@@ -1801,19 +1814,19 @@
         <f t="shared" si="2"/>
         <v>302</v>
       </c>
-      <c r="F22">
+      <c r="G22" s="12">
         <f t="shared" si="3"/>
         <v>0.83</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f t="shared" si="6"/>
         <v>280</v>
       </c>
@@ -1834,19 +1847,19 @@
         <f t="shared" si="2"/>
         <v>324</v>
       </c>
-      <c r="F23">
+      <c r="G23" s="12">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f t="shared" si="6"/>
         <v>290</v>
       </c>
@@ -1867,19 +1880,19 @@
         <f t="shared" si="2"/>
         <v>347</v>
       </c>
-      <c r="F24">
+      <c r="G24" s="12">
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
@@ -1900,19 +1913,19 @@
         <f t="shared" si="2"/>
         <v>370</v>
       </c>
-      <c r="F25">
+      <c r="G25" s="12">
         <f t="shared" si="3"/>
         <v>1.02</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="6"/>
         <v>310</v>
       </c>
@@ -1933,19 +1946,19 @@
         <f t="shared" si="2"/>
         <v>394</v>
       </c>
-      <c r="F26">
+      <c r="G26" s="12">
         <f t="shared" si="3"/>
         <v>1.0900000000000001</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f t="shared" si="6"/>
         <v>320</v>
       </c>
@@ -1966,19 +1979,19 @@
         <f t="shared" si="2"/>
         <v>418</v>
       </c>
-      <c r="F27">
+      <c r="G27" s="12">
         <f t="shared" si="3"/>
         <v>1.1599999999999999</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f t="shared" si="6"/>
         <v>330</v>
       </c>
@@ -1999,19 +2012,19 @@
         <f t="shared" si="2"/>
         <v>443</v>
       </c>
-      <c r="F28">
+      <c r="G28" s="12">
         <f t="shared" si="3"/>
         <v>1.23</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f t="shared" si="6"/>
         <v>340</v>
       </c>
@@ -2032,19 +2045,19 @@
         <f t="shared" si="2"/>
         <v>468</v>
       </c>
-      <c r="F29">
+      <c r="G29" s="12">
         <f t="shared" si="3"/>
         <v>1.3</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <f t="shared" si="6"/>
         <v>350</v>
       </c>
@@ -2065,19 +2078,19 @@
         <f t="shared" si="2"/>
         <v>494</v>
       </c>
-      <c r="F30">
+      <c r="G30" s="12">
         <f t="shared" si="3"/>
         <v>1.37</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
@@ -2098,19 +2111,19 @@
         <f t="shared" si="2"/>
         <v>520</v>
       </c>
-      <c r="F31">
+      <c r="G31" s="12">
         <f t="shared" si="3"/>
         <v>1.44</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <f t="shared" si="6"/>
         <v>370</v>
       </c>
@@ -2143,19 +2156,19 @@
         <f t="shared" si="2"/>
         <v>546</v>
       </c>
-      <c r="F32">
+      <c r="G32" s="12">
         <f t="shared" si="3"/>
         <v>1.51</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <f t="shared" si="4"/>
         <v>74</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <f t="shared" si="6"/>
         <v>380</v>
       </c>
@@ -2176,19 +2189,19 @@
         <f t="shared" si="2"/>
         <v>573</v>
       </c>
-      <c r="F33">
+      <c r="G33" s="12">
         <f t="shared" si="3"/>
         <v>1.59</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <f t="shared" si="6"/>
         <v>390</v>
       </c>
@@ -2209,19 +2222,19 @@
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="F34">
+      <c r="G34" s="12">
         <f t="shared" si="3"/>
         <v>1.66</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <f t="shared" si="4"/>
         <v>78</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
@@ -2242,19 +2255,19 @@
         <f t="shared" si="2"/>
         <v>627</v>
       </c>
-      <c r="F35">
+      <c r="G35" s="12">
         <f t="shared" si="3"/>
         <v>1.74</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <f t="shared" si="6"/>
         <v>410</v>
       </c>
@@ -2275,19 +2288,19 @@
         <f t="shared" si="2"/>
         <v>655</v>
       </c>
-      <c r="F36">
+      <c r="G36" s="12">
         <f t="shared" si="3"/>
         <v>1.81</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <f t="shared" si="6"/>
         <v>420</v>
       </c>
@@ -2308,19 +2321,19 @@
         <f t="shared" si="2"/>
         <v>683</v>
       </c>
-      <c r="F37">
+      <c r="G37" s="12">
         <f t="shared" si="3"/>
         <v>1.89</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <f t="shared" si="6"/>
         <v>430</v>
       </c>
@@ -2341,19 +2354,19 @@
         <f t="shared" si="2"/>
         <v>712</v>
       </c>
-      <c r="F38">
+      <c r="G38" s="12">
         <f t="shared" si="3"/>
         <v>1.97</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <f t="shared" si="6"/>
         <v>440</v>
       </c>
@@ -2374,19 +2387,19 @@
         <f t="shared" si="2"/>
         <v>740</v>
       </c>
-      <c r="F39">
+      <c r="G39" s="12">
         <f t="shared" si="3"/>
         <v>2.0499999999999998</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <f t="shared" si="6"/>
         <v>450</v>
       </c>
@@ -2407,19 +2420,19 @@
         <f t="shared" si="2"/>
         <v>770</v>
       </c>
-      <c r="F40">
+      <c r="G40" s="12">
         <f t="shared" si="3"/>
         <v>2.13</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <f t="shared" si="6"/>
         <v>460</v>
       </c>
@@ -2440,19 +2453,19 @@
         <f t="shared" si="2"/>
         <v>799</v>
       </c>
-      <c r="F41">
+      <c r="G41" s="12">
         <f t="shared" si="3"/>
         <v>2.21</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <f t="shared" si="6"/>
         <v>470</v>
       </c>
@@ -2485,19 +2498,19 @@
         <f t="shared" si="2"/>
         <v>829</v>
       </c>
-      <c r="F42">
+      <c r="G42" s="12">
         <f t="shared" si="3"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <f t="shared" si="6"/>
         <v>480</v>
       </c>
@@ -2518,19 +2531,19 @@
         <f t="shared" si="2"/>
         <v>859</v>
       </c>
-      <c r="F43">
+      <c r="G43" s="12">
         <f t="shared" si="3"/>
         <v>2.38</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <f t="shared" si="6"/>
         <v>490</v>
       </c>
@@ -2551,19 +2564,19 @@
         <f t="shared" si="2"/>
         <v>889</v>
       </c>
-      <c r="F44">
+      <c r="G44" s="12">
         <f t="shared" si="3"/>
         <v>2.46</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <f t="shared" si="6"/>
         <v>500</v>
       </c>
@@ -2584,19 +2597,19 @@
         <f t="shared" si="2"/>
         <v>920</v>
       </c>
-      <c r="F45">
+      <c r="G45" s="12">
         <f t="shared" si="3"/>
         <v>2.5499999999999998</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <f t="shared" si="6"/>
         <v>510</v>
       </c>
@@ -2617,19 +2630,19 @@
         <f t="shared" si="2"/>
         <v>951</v>
       </c>
-      <c r="F46">
+      <c r="G46" s="12">
         <f t="shared" si="3"/>
         <v>2.64</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <f t="shared" si="6"/>
         <v>520</v>
       </c>
@@ -2650,19 +2663,19 @@
         <f t="shared" si="2"/>
         <v>983</v>
       </c>
-      <c r="F47">
+      <c r="G47" s="12">
         <f t="shared" si="3"/>
         <v>2.73</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <f t="shared" si="6"/>
         <v>530</v>
       </c>
@@ -2683,19 +2696,19 @@
         <f t="shared" si="2"/>
         <v>1014</v>
       </c>
-      <c r="F48">
+      <c r="G48" s="12">
         <f t="shared" si="3"/>
         <v>2.81</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <f t="shared" si="6"/>
         <v>540</v>
       </c>
@@ -2716,19 +2729,19 @@
         <f t="shared" si="2"/>
         <v>1046</v>
       </c>
-      <c r="F49">
+      <c r="G49" s="12">
         <f t="shared" si="3"/>
         <v>2.9</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <f t="shared" si="6"/>
         <v>550</v>
       </c>
@@ -2749,19 +2762,19 @@
         <f t="shared" si="2"/>
         <v>1078</v>
       </c>
-      <c r="F50">
+      <c r="G50" s="12">
         <f t="shared" si="3"/>
         <v>2.99</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <f t="shared" si="6"/>
         <v>560</v>
       </c>
@@ -2782,19 +2795,19 @@
         <f t="shared" si="2"/>
         <v>1111</v>
       </c>
-      <c r="F51">
+      <c r="G51" s="12">
         <f t="shared" si="3"/>
         <v>3.08</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <f t="shared" si="4"/>
         <v>112</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <f t="shared" si="6"/>
         <v>570</v>
       </c>
@@ -2827,19 +2840,19 @@
         <f t="shared" si="2"/>
         <v>1144</v>
       </c>
-      <c r="F52">
+      <c r="G52" s="12">
         <f t="shared" si="3"/>
         <v>3.17</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <f t="shared" si="4"/>
         <v>114</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <f t="shared" si="6"/>
         <v>580</v>
       </c>
@@ -2860,19 +2873,19 @@
         <f t="shared" si="2"/>
         <v>1177</v>
       </c>
-      <c r="F53">
+      <c r="G53" s="12">
         <f t="shared" si="3"/>
         <v>3.26</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <f t="shared" si="4"/>
         <v>116</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <f t="shared" si="6"/>
         <v>590</v>
       </c>
@@ -2893,19 +2906,19 @@
         <f t="shared" si="2"/>
         <v>1210</v>
       </c>
-      <c r="F54">
+      <c r="G54" s="12">
         <f t="shared" si="3"/>
         <v>3.36</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <f t="shared" si="4"/>
         <v>118</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <f t="shared" si="6"/>
         <v>600</v>
       </c>
@@ -2926,19 +2939,19 @@
         <f t="shared" si="2"/>
         <v>1244</v>
       </c>
-      <c r="F55">
+      <c r="G55" s="12">
         <f t="shared" si="3"/>
         <v>3.45</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <f t="shared" si="6"/>
         <v>610</v>
       </c>
@@ -2959,19 +2972,19 @@
         <f t="shared" si="2"/>
         <v>1277</v>
       </c>
-      <c r="F56">
+      <c r="G56" s="12">
         <f t="shared" si="3"/>
         <v>3.54</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <f t="shared" si="6"/>
         <v>620</v>
       </c>
@@ -2992,19 +3005,19 @@
         <f t="shared" si="2"/>
         <v>1312</v>
       </c>
-      <c r="F57">
+      <c r="G57" s="12">
         <f t="shared" si="3"/>
         <v>3.64</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <f t="shared" si="6"/>
         <v>630</v>
       </c>
@@ -3025,19 +3038,19 @@
         <f t="shared" si="2"/>
         <v>1346</v>
       </c>
-      <c r="F58">
+      <c r="G58" s="12">
         <f t="shared" si="3"/>
         <v>3.73</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <f t="shared" si="4"/>
         <v>126</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <f t="shared" si="6"/>
         <v>640</v>
       </c>
@@ -3058,19 +3071,19 @@
         <f t="shared" si="2"/>
         <v>1381</v>
       </c>
-      <c r="F59">
+      <c r="G59" s="12">
         <f t="shared" si="3"/>
         <v>3.83</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <f t="shared" si="4"/>
         <v>128</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <f t="shared" si="6"/>
         <v>650</v>
       </c>
@@ -3091,19 +3104,19 @@
         <f t="shared" si="2"/>
         <v>1416</v>
       </c>
-      <c r="F60">
+      <c r="G60" s="12">
         <f t="shared" si="3"/>
         <v>3.93</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <f t="shared" si="6"/>
         <v>660</v>
       </c>
@@ -3124,19 +3137,19 @@
         <f t="shared" si="2"/>
         <v>1451</v>
       </c>
-      <c r="F61">
+      <c r="G61" s="12">
         <f t="shared" si="3"/>
         <v>4.03</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <f t="shared" si="4"/>
         <v>132</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <f t="shared" si="6"/>
         <v>670</v>
       </c>
@@ -3169,19 +3182,19 @@
         <f t="shared" si="2"/>
         <v>1486</v>
       </c>
-      <c r="F62">
+      <c r="G62" s="12">
         <f t="shared" si="3"/>
         <v>4.12</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <f t="shared" si="4"/>
         <v>134</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <f t="shared" si="6"/>
         <v>680</v>
       </c>
@@ -3202,19 +3215,19 @@
         <f t="shared" si="2"/>
         <v>1522</v>
       </c>
-      <c r="F63">
+      <c r="G63" s="12">
         <f t="shared" si="3"/>
         <v>4.22</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <f t="shared" si="4"/>
         <v>136</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <f t="shared" si="6"/>
         <v>690</v>
       </c>
@@ -3235,19 +3248,19 @@
         <f t="shared" si="2"/>
         <v>1558</v>
       </c>
-      <c r="F64">
+      <c r="G64" s="12">
         <f t="shared" si="3"/>
         <v>4.32</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <f t="shared" si="4"/>
         <v>138</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <f t="shared" si="6"/>
         <v>700</v>
       </c>
@@ -3268,19 +3281,19 @@
         <f t="shared" si="2"/>
         <v>1594</v>
       </c>
-      <c r="F65">
+      <c r="G65" s="12">
         <f t="shared" si="3"/>
         <v>4.42</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <f t="shared" si="6"/>
         <v>710</v>
       </c>
@@ -3301,19 +3314,19 @@
         <f t="shared" si="2"/>
         <v>1630</v>
       </c>
-      <c r="F66">
+      <c r="G66" s="12">
         <f t="shared" si="3"/>
         <v>4.5199999999999996</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <f t="shared" si="4"/>
         <v>142</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <f t="shared" si="6"/>
         <v>720</v>
       </c>
@@ -3334,20 +3347,20 @@
         <f t="shared" ref="D67:D101" si="12">INT(C67/B67)</f>
         <v>1667</v>
       </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F101" si="13">TRUNC(D67/360,2)</f>
+      <c r="G67" s="12">
+        <f t="shared" ref="G67:G101" si="13">TRUNC(D67/360,2)</f>
         <v>4.63</v>
       </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G101" si="14">12+2*A67</f>
+      <c r="H67">
+        <f t="shared" ref="H67:H101" si="14">12+2*A67</f>
         <v>144</v>
       </c>
-      <c r="H67">
-        <f t="shared" ref="H67:H101" si="15">5+1*A67</f>
+      <c r="I67">
+        <f t="shared" ref="I67:I101" si="15">5+1*A67</f>
         <v>71</v>
       </c>
-      <c r="I67">
-        <f t="shared" ref="I67:I101" si="16">70+10*A67</f>
+      <c r="J67">
+        <f t="shared" ref="J67:J101" si="16">70+10*A67</f>
         <v>730</v>
       </c>
     </row>
@@ -3367,19 +3380,19 @@
         <f t="shared" si="12"/>
         <v>1704</v>
       </c>
-      <c r="F68">
+      <c r="G68" s="12">
         <f t="shared" si="13"/>
         <v>4.7300000000000004</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <f t="shared" si="14"/>
         <v>146</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <f t="shared" si="15"/>
         <v>72</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <f t="shared" si="16"/>
         <v>740</v>
       </c>
@@ -3400,19 +3413,19 @@
         <f t="shared" si="12"/>
         <v>1741</v>
       </c>
-      <c r="F69">
+      <c r="G69" s="12">
         <f t="shared" si="13"/>
         <v>4.83</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <f t="shared" si="14"/>
         <v>148</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <f t="shared" si="15"/>
         <v>73</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <f t="shared" si="16"/>
         <v>750</v>
       </c>
@@ -3433,19 +3446,19 @@
         <f t="shared" si="12"/>
         <v>1778</v>
       </c>
-      <c r="F70">
+      <c r="G70" s="12">
         <f t="shared" si="13"/>
         <v>4.93</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <f t="shared" si="14"/>
         <v>150</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <f t="shared" si="15"/>
         <v>74</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <f t="shared" si="16"/>
         <v>760</v>
       </c>
@@ -3466,32 +3479,32 @@
         <f t="shared" si="12"/>
         <v>1815</v>
       </c>
-      <c r="F71">
+      <c r="G71" s="12">
         <f t="shared" si="13"/>
         <v>5.04</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <f t="shared" si="14"/>
         <v>152</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <f t="shared" si="16"/>
         <v>770</v>
       </c>
       <c r="K71">
-        <f t="shared" ref="K71:K101" si="17">G71*0.5</f>
+        <f t="shared" ref="K71:K101" si="17">H71*0.5</f>
         <v>76</v>
       </c>
       <c r="L71">
-        <f t="shared" ref="L71:L101" si="18">H71*0.5</f>
+        <f t="shared" ref="L71:L101" si="18">I71*0.5</f>
         <v>37.5</v>
       </c>
       <c r="M71">
-        <f t="shared" ref="M71:M101" si="19">I71*0.5</f>
+        <f t="shared" ref="M71:M101" si="19">J71*0.5</f>
         <v>385</v>
       </c>
     </row>
@@ -3511,19 +3524,19 @@
         <f t="shared" si="12"/>
         <v>1853</v>
       </c>
-      <c r="F72">
+      <c r="G72" s="12">
         <f t="shared" si="13"/>
         <v>5.14</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <f t="shared" si="14"/>
         <v>154</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <f t="shared" si="15"/>
         <v>76</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <f t="shared" si="16"/>
         <v>780</v>
       </c>
@@ -3544,19 +3557,19 @@
         <f t="shared" si="12"/>
         <v>1891</v>
       </c>
-      <c r="F73">
+      <c r="G73" s="12">
         <f t="shared" si="13"/>
         <v>5.25</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <f t="shared" si="14"/>
         <v>156</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <f t="shared" si="15"/>
         <v>77</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <f t="shared" si="16"/>
         <v>790</v>
       </c>
@@ -3577,19 +3590,19 @@
         <f t="shared" si="12"/>
         <v>1929</v>
       </c>
-      <c r="F74">
+      <c r="G74" s="12">
         <f t="shared" si="13"/>
         <v>5.35</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <f t="shared" si="14"/>
         <v>158</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <f t="shared" si="15"/>
         <v>78</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <f t="shared" si="16"/>
         <v>800</v>
       </c>
@@ -3610,19 +3623,19 @@
         <f t="shared" si="12"/>
         <v>1968</v>
       </c>
-      <c r="F75">
+      <c r="G75" s="12">
         <f t="shared" si="13"/>
         <v>5.46</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <f t="shared" si="14"/>
         <v>160</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <f t="shared" si="15"/>
         <v>79</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <f t="shared" si="16"/>
         <v>810</v>
       </c>
@@ -3643,19 +3656,19 @@
         <f t="shared" si="12"/>
         <v>2006</v>
       </c>
-      <c r="F76">
+      <c r="G76" s="12">
         <f t="shared" si="13"/>
         <v>5.57</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <f t="shared" si="14"/>
         <v>162</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <f t="shared" si="15"/>
         <v>80</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <f t="shared" si="16"/>
         <v>820</v>
       </c>
@@ -3676,19 +3689,19 @@
         <f t="shared" si="12"/>
         <v>2045</v>
       </c>
-      <c r="F77">
+      <c r="G77" s="12">
         <f t="shared" si="13"/>
         <v>5.68</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <f t="shared" si="14"/>
         <v>164</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <f t="shared" si="15"/>
         <v>81</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <f t="shared" si="16"/>
         <v>830</v>
       </c>
@@ -3709,19 +3722,19 @@
         <f t="shared" si="12"/>
         <v>2084</v>
       </c>
-      <c r="F78">
+      <c r="G78" s="12">
         <f t="shared" si="13"/>
         <v>5.78</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <f t="shared" si="14"/>
         <v>166</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <f t="shared" si="15"/>
         <v>82</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <f t="shared" si="16"/>
         <v>840</v>
       </c>
@@ -3742,19 +3755,19 @@
         <f t="shared" si="12"/>
         <v>2123</v>
       </c>
-      <c r="F79">
+      <c r="G79" s="12">
         <f t="shared" si="13"/>
         <v>5.89</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <f t="shared" si="14"/>
         <v>168</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <f t="shared" si="15"/>
         <v>83</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <f t="shared" si="16"/>
         <v>850</v>
       </c>
@@ -3775,19 +3788,19 @@
         <f t="shared" si="12"/>
         <v>2163</v>
       </c>
-      <c r="F80">
+      <c r="G80" s="12">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <f t="shared" si="14"/>
         <v>170</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <f t="shared" si="15"/>
         <v>84</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <f t="shared" si="16"/>
         <v>860</v>
       </c>
@@ -3808,19 +3821,19 @@
         <f t="shared" si="12"/>
         <v>2203</v>
       </c>
-      <c r="F81">
+      <c r="G81" s="12">
         <f t="shared" si="13"/>
         <v>6.11</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <f t="shared" si="14"/>
         <v>172</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <f t="shared" si="15"/>
         <v>85</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <f t="shared" si="16"/>
         <v>870</v>
       </c>
@@ -3853,19 +3866,19 @@
         <f t="shared" si="12"/>
         <v>2242</v>
       </c>
-      <c r="F82">
+      <c r="G82" s="12">
         <f t="shared" si="13"/>
         <v>6.22</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <f t="shared" si="14"/>
         <v>174</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <f t="shared" si="15"/>
         <v>86</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <f t="shared" si="16"/>
         <v>880</v>
       </c>
@@ -3886,19 +3899,19 @@
         <f t="shared" si="12"/>
         <v>2283</v>
       </c>
-      <c r="F83">
+      <c r="G83" s="12">
         <f t="shared" si="13"/>
         <v>6.34</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <f t="shared" si="14"/>
         <v>176</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <f t="shared" si="15"/>
         <v>87</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <f t="shared" si="16"/>
         <v>890</v>
       </c>
@@ -3919,19 +3932,19 @@
         <f t="shared" si="12"/>
         <v>2323</v>
       </c>
-      <c r="F84">
+      <c r="G84" s="12">
         <f t="shared" si="13"/>
         <v>6.45</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <f t="shared" si="14"/>
         <v>178</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <f t="shared" si="15"/>
         <v>88</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <f t="shared" si="16"/>
         <v>900</v>
       </c>
@@ -3952,19 +3965,19 @@
         <f t="shared" si="12"/>
         <v>2363</v>
       </c>
-      <c r="F85">
+      <c r="G85" s="12">
         <f t="shared" si="13"/>
         <v>6.56</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <f t="shared" si="14"/>
         <v>180</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <f t="shared" si="15"/>
         <v>89</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <f t="shared" si="16"/>
         <v>910</v>
       </c>
@@ -3985,19 +3998,19 @@
         <f t="shared" si="12"/>
         <v>2404</v>
       </c>
-      <c r="F86">
+      <c r="G86" s="12">
         <f t="shared" si="13"/>
         <v>6.67</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <f t="shared" si="14"/>
         <v>182</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <f t="shared" si="15"/>
         <v>90</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <f t="shared" si="16"/>
         <v>920</v>
       </c>
@@ -4018,19 +4031,19 @@
         <f t="shared" si="12"/>
         <v>2445</v>
       </c>
-      <c r="F87">
+      <c r="G87" s="12">
         <f t="shared" si="13"/>
         <v>6.79</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <f t="shared" si="14"/>
         <v>184</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <f t="shared" si="15"/>
         <v>91</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <f t="shared" si="16"/>
         <v>930</v>
       </c>
@@ -4051,19 +4064,19 @@
         <f t="shared" si="12"/>
         <v>2486</v>
       </c>
-      <c r="F88">
+      <c r="G88" s="12">
         <f t="shared" si="13"/>
         <v>6.9</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <f t="shared" si="14"/>
         <v>186</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <f t="shared" si="15"/>
         <v>92</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <f t="shared" si="16"/>
         <v>940</v>
       </c>
@@ -4084,19 +4097,19 @@
         <f t="shared" si="12"/>
         <v>2527</v>
       </c>
-      <c r="F89">
+      <c r="G89" s="12">
         <f t="shared" si="13"/>
         <v>7.01</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <f t="shared" si="14"/>
         <v>188</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <f t="shared" si="15"/>
         <v>93</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <f t="shared" si="16"/>
         <v>950</v>
       </c>
@@ -4117,19 +4130,19 @@
         <f t="shared" si="12"/>
         <v>2569</v>
       </c>
-      <c r="F90">
+      <c r="G90" s="12">
         <f t="shared" si="13"/>
         <v>7.13</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <f t="shared" si="14"/>
         <v>190</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <f t="shared" si="15"/>
         <v>94</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <f t="shared" si="16"/>
         <v>960</v>
       </c>
@@ -4150,19 +4163,19 @@
         <f t="shared" si="12"/>
         <v>2611</v>
       </c>
-      <c r="F91">
+      <c r="G91" s="12">
         <f t="shared" si="13"/>
         <v>7.25</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <f t="shared" si="14"/>
         <v>192</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <f t="shared" si="15"/>
         <v>95</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <f t="shared" si="16"/>
         <v>970</v>
       </c>
@@ -4195,19 +4208,19 @@
         <f t="shared" si="12"/>
         <v>2652</v>
       </c>
-      <c r="F92">
+      <c r="G92" s="12">
         <f t="shared" si="13"/>
         <v>7.36</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <f t="shared" si="14"/>
         <v>194</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <f t="shared" si="15"/>
         <v>96</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <f t="shared" si="16"/>
         <v>980</v>
       </c>
@@ -4228,19 +4241,19 @@
         <f t="shared" si="12"/>
         <v>2694</v>
       </c>
-      <c r="F93">
+      <c r="G93" s="12">
         <f t="shared" si="13"/>
         <v>7.48</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <f t="shared" si="14"/>
         <v>196</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <f t="shared" si="15"/>
         <v>97</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <f t="shared" si="16"/>
         <v>990</v>
       </c>
@@ -4261,19 +4274,19 @@
         <f t="shared" si="12"/>
         <v>2737</v>
       </c>
-      <c r="F94">
+      <c r="G94" s="12">
         <f t="shared" si="13"/>
         <v>7.6</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <f t="shared" si="14"/>
         <v>198</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <f t="shared" si="15"/>
         <v>98</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <f t="shared" si="16"/>
         <v>1000</v>
       </c>
@@ -4294,19 +4307,19 @@
         <f t="shared" si="12"/>
         <v>2779</v>
       </c>
-      <c r="F95">
+      <c r="G95" s="12">
         <f t="shared" si="13"/>
         <v>7.71</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <f t="shared" si="14"/>
         <v>200</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <f t="shared" si="15"/>
         <v>99</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <f t="shared" si="16"/>
         <v>1010</v>
       </c>
@@ -4327,19 +4340,19 @@
         <f t="shared" si="12"/>
         <v>2822</v>
       </c>
-      <c r="F96">
+      <c r="G96" s="12">
         <f t="shared" si="13"/>
         <v>7.83</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <f t="shared" si="14"/>
         <v>202</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <f t="shared" si="16"/>
         <v>1020</v>
       </c>
@@ -4360,19 +4373,19 @@
         <f t="shared" si="12"/>
         <v>2865</v>
       </c>
-      <c r="F97">
+      <c r="G97" s="12">
         <f t="shared" si="13"/>
         <v>7.95</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <f t="shared" si="14"/>
         <v>204</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <f t="shared" si="15"/>
         <v>101</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <f t="shared" si="16"/>
         <v>1030</v>
       </c>
@@ -4393,19 +4406,19 @@
         <f t="shared" si="12"/>
         <v>2908</v>
       </c>
-      <c r="F98">
+      <c r="G98" s="12">
         <f t="shared" si="13"/>
         <v>8.07</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <f t="shared" si="14"/>
         <v>206</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <f t="shared" si="15"/>
         <v>102</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <f t="shared" si="16"/>
         <v>1040</v>
       </c>
@@ -4426,19 +4439,19 @@
         <f t="shared" si="12"/>
         <v>2951</v>
       </c>
-      <c r="F99">
+      <c r="G99" s="12">
         <f t="shared" si="13"/>
         <v>8.19</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <f t="shared" si="14"/>
         <v>208</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <f t="shared" si="15"/>
         <v>103</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <f t="shared" si="16"/>
         <v>1050</v>
       </c>
@@ -4459,19 +4472,19 @@
         <f t="shared" si="12"/>
         <v>2994</v>
       </c>
-      <c r="F100">
+      <c r="G100" s="12">
         <f t="shared" si="13"/>
         <v>8.31</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <f t="shared" si="14"/>
         <v>210</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <f t="shared" si="15"/>
         <v>104</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <f t="shared" si="16"/>
         <v>1060</v>
       </c>
@@ -4492,19 +4505,19 @@
         <f t="shared" si="12"/>
         <v>7624</v>
       </c>
-      <c r="F101">
+      <c r="G101" s="12">
         <f t="shared" si="13"/>
         <v>21.17</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <f t="shared" si="14"/>
         <v>212</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <f t="shared" si="15"/>
         <v>105</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <f t="shared" si="16"/>
         <v>1070</v>
       </c>
@@ -4543,60 +4556,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="5" max="5" width="9" style="8"/>
-    <col min="10" max="10" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="5" max="5" width="9" style="5"/>
+    <col min="10" max="10" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="E3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J3" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="K3">
         <v>1000</v>
@@ -4606,14 +4619,14 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>140</v>
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="K4">
         <v>2000</v>
@@ -4623,14 +4636,14 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>141</v>
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="K5">
         <v>3000</v>
@@ -4640,8 +4653,8 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="6" t="s">
-        <v>24</v>
+      <c r="A6" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -4649,8 +4662,8 @@
       <c r="C6">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>90</v>
+      <c r="E6" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -4658,8 +4671,8 @@
       <c r="G6">
         <v>3</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>142</v>
+      <c r="J6" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="K6">
         <v>4000</v>
@@ -4669,52 +4682,52 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J9" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="6" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J10" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="7" t="s">
+    <row r="11" spans="1:12" ht="27">
+      <c r="A11" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="27">
-      <c r="A11" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -4722,8 +4735,8 @@
       <c r="C11">
         <v>16</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>95</v>
+      <c r="E11" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="F11">
         <v>300</v>
@@ -4731,8 +4744,8 @@
       <c r="G11">
         <v>7.5</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>147</v>
+      <c r="J11" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="K11">
         <v>5000</v>
@@ -4742,14 +4755,14 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>148</v>
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="K12">
         <v>6000</v>
@@ -4759,25 +4772,25 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>149</v>
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>150</v>
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="K14">
         <v>7000</v>
@@ -4787,14 +4800,14 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>151</v>
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="K15">
         <v>8000</v>
@@ -4804,34 +4817,34 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="27">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="27">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" ht="27">
-      <c r="A17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="27">
-      <c r="A18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>153</v>
+      <c r="E18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="K18">
         <v>9000</v>
@@ -4841,14 +4854,14 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="27">
-      <c r="A19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>154</v>
+      <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="K19">
         <v>10000</v>
@@ -4858,8 +4871,8 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="6" t="s">
-        <v>38</v>
+      <c r="A20" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B20">
         <v>550</v>
@@ -4867,8 +4880,8 @@
       <c r="C20">
         <v>26</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>102</v>
+      <c r="E20" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="F20">
         <v>700</v>
@@ -4876,8 +4889,8 @@
       <c r="G20">
         <v>12.5</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>155</v>
+      <c r="J20" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="K20">
         <v>20000</v>
@@ -4887,38 +4900,38 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="6" t="s">
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="B24">
         <v>1000</v>
@@ -4926,8 +4939,8 @@
       <c r="C24">
         <v>36</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>108</v>
+      <c r="E24" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="F24">
         <v>1250</v>
@@ -4937,8 +4950,8 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="7" t="s">
-        <v>43</v>
+      <c r="A25" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B25">
         <v>2000</v>
@@ -4946,8 +4959,8 @@
       <c r="C25">
         <v>46</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>109</v>
+      <c r="E25" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="F25">
         <v>2500</v>
@@ -4957,54 +4970,54 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="27">
+      <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="7" t="s">
+      <c r="E28" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="27">
+      <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E29" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="27">
-      <c r="A28" s="6" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E30" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="27">
-      <c r="A29" s="7" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E31" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="6" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="B32">
         <v>3500</v>
@@ -5012,8 +5025,8 @@
       <c r="C32">
         <v>56</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>115</v>
+      <c r="E32" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="F32">
         <v>4000</v>
@@ -5023,102 +5036,102 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E35" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="6" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="7" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="7" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E39" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="6" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E40" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="7" t="s">
+    <row r="41" spans="1:7" ht="27">
+      <c r="A41" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E41" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="6" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E42" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="27">
-      <c r="A41" s="7" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E43" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="6" t="s">
+    <row r="44" spans="1:7">
+      <c r="A44" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E44" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="7" t="s">
+    <row r="45" spans="1:7">
+      <c r="A45" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="B45">
         <v>5000</v>
@@ -5126,8 +5139,8 @@
       <c r="C45">
         <v>66</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>127</v>
+      <c r="E45" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="F45">
         <v>6750</v>
@@ -5137,16 +5150,16 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="27">
-      <c r="A46" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>128</v>
+      <c r="A46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="7" t="s">
-        <v>65</v>
+      <c r="A47" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B47">
         <v>7500</v>
@@ -5154,8 +5167,8 @@
       <c r="C47">
         <v>76</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>129</v>
+      <c r="E47" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="F47">
         <v>8800</v>
@@ -5165,16 +5178,16 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>130</v>
+      <c r="A48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="7" t="s">
-        <v>67</v>
+      <c r="A49" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B49">
         <v>9500</v>
@@ -5182,8 +5195,8 @@
       <c r="C49">
         <v>86</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>131</v>
+      <c r="E49" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="F49">
         <v>12250</v>
@@ -5193,11 +5206,11 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>132</v>
+      <c r="A50" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="F50">
         <v>15000</v>
@@ -5207,8 +5220,8 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="7" t="s">
-        <v>69</v>
+      <c r="A51" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B51">
         <v>12500</v>
@@ -5216,8 +5229,8 @@
       <c r="C51">
         <v>96</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>133</v>
+      <c r="E51" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="F51">
         <v>27500</v>
@@ -5227,22 +5240,22 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="27">
+      <c r="A54" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="27">
-      <c r="A54" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="B54">
         <v>25000</v>
@@ -5250,63 +5263,63 @@
       <c r="C54">
         <v>106</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>135</v>
+      <c r="E54" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="27">
+      <c r="A57" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="6" t="s">
+    <row r="58" spans="1:7">
+      <c r="A58" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="27">
-      <c r="A57" s="7" t="s">
+    <row r="59" spans="1:7">
+      <c r="A59" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="6" t="s">
+    <row r="60" spans="1:7">
+      <c r="A60" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="7" t="s">
+    <row r="61" spans="1:7" ht="27">
+      <c r="A61" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="6" t="s">
+    <row r="62" spans="1:7">
+      <c r="A62" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="27">
-      <c r="A61" s="7" t="s">
+    <row r="63" spans="1:7">
+      <c r="A63" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="6" t="s">
+    <row r="64" spans="1:7">
+      <c r="A64" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="7" t="s">
+    <row r="65" spans="1:1" ht="27">
+      <c r="A65" s="4" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="27">
-      <c r="A65" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5329,34 +5342,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="5" max="5" width="10.75" style="8" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="5" max="5" width="10.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="J1" s="5"/>
+      <c r="J1" s="2"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="6" t="s">
-        <v>24</v>
+      <c r="A2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -5365,12 +5378,12 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="7" t="s">
-        <v>29</v>
+      <c r="A3" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -5379,12 +5392,12 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="6" t="s">
-        <v>38</v>
+      <c r="A4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B4">
         <v>550</v>
@@ -5393,12 +5406,12 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="6" t="s">
-        <v>42</v>
+      <c r="A5" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B5">
         <v>1000</v>
@@ -5407,12 +5420,12 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="7" t="s">
-        <v>43</v>
+      <c r="A6" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -5421,12 +5434,12 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="6" t="s">
-        <v>50</v>
+      <c r="A7" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B7">
         <v>3500</v>
@@ -5435,12 +5448,12 @@
         <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="7" t="s">
-        <v>63</v>
+      <c r="A8" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B8">
         <v>5000</v>
@@ -5449,12 +5462,12 @@
         <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="7" t="s">
-        <v>65</v>
+      <c r="A9" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B9">
         <v>7500</v>
@@ -5463,12 +5476,12 @@
         <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="7" t="s">
-        <v>67</v>
+      <c r="A10" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B10">
         <v>9500</v>
@@ -5477,12 +5490,12 @@
         <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="7" t="s">
-        <v>69</v>
+      <c r="A11" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B11">
         <v>12500</v>
@@ -5491,12 +5504,12 @@
         <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="6" t="s">
-        <v>72</v>
+      <c r="A12" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B12">
         <v>25000</v>
@@ -5505,12 +5518,12 @@
         <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="6" t="s">
-        <v>90</v>
+      <c r="A13" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -5519,12 +5532,12 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="7" t="s">
-        <v>95</v>
+      <c r="A14" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B14">
         <v>300</v>
@@ -5533,12 +5546,12 @@
         <v>7.5</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="6" t="s">
-        <v>102</v>
+      <c r="A15" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B15">
         <v>700</v>
@@ -5547,12 +5560,12 @@
         <v>12.5</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="6" t="s">
-        <v>108</v>
+      <c r="A16" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B16">
         <v>1250</v>
@@ -5561,12 +5574,12 @@
         <v>17.5</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
-        <v>109</v>
+      <c r="A17" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="B17">
         <v>2500</v>
@@ -5575,12 +5588,12 @@
         <v>22.5</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
-        <v>115</v>
+      <c r="A18" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="B18">
         <v>4000</v>
@@ -5589,12 +5602,12 @@
         <v>27.5</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="7" t="s">
-        <v>127</v>
+      <c r="A19" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="B19">
         <v>6750</v>
@@ -5603,12 +5616,12 @@
         <v>32.5</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
-        <v>129</v>
+      <c r="A20" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="B20">
         <v>8800</v>
@@ -5617,12 +5630,12 @@
         <v>37.5</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="7" t="s">
-        <v>131</v>
+      <c r="A21" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="B21">
         <v>12250</v>
@@ -5631,12 +5644,12 @@
         <v>42.5</v>
       </c>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6" t="s">
-        <v>133</v>
+      <c r="A22" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="B22">
         <v>15000</v>
@@ -5645,12 +5658,12 @@
         <v>47.5</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8" t="s">
-        <v>159</v>
+      <c r="A23" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="B23">
         <v>27500</v>
@@ -5659,12 +5672,12 @@
         <v>52.5</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="7" t="s">
-        <v>139</v>
+      <c r="A24" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="B24">
         <v>1000</v>
@@ -5673,12 +5686,12 @@
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
-        <v>140</v>
+      <c r="A25" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="B25">
         <v>2000</v>
@@ -5687,12 +5700,12 @@
         <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="7" t="s">
-        <v>141</v>
+      <c r="A26" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="B26">
         <v>3000</v>
@@ -5701,12 +5714,12 @@
         <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="6" t="s">
-        <v>142</v>
+      <c r="A27" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="B27">
         <v>4000</v>
@@ -5715,12 +5728,12 @@
         <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8" t="s">
-        <v>160</v>
+      <c r="A28" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="B28">
         <v>5000</v>
@@ -5729,12 +5742,12 @@
         <v>235</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
-        <v>148</v>
+      <c r="A29" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="B29">
         <v>6000</v>
@@ -5743,12 +5756,12 @@
         <v>285</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="6" t="s">
-        <v>150</v>
+      <c r="A30" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="B30">
         <v>7000</v>
@@ -5757,12 +5770,12 @@
         <v>335</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="7" t="s">
-        <v>151</v>
+      <c r="A31" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="B31">
         <v>8000</v>
@@ -5771,12 +5784,12 @@
         <v>385</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="27">
-      <c r="A32" s="7" t="s">
-        <v>153</v>
+      <c r="A32" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="B32">
         <v>9000</v>
@@ -5785,12 +5798,12 @@
         <v>435</v>
       </c>
       <c r="D32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6" t="s">
-        <v>154</v>
+      <c r="A33" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="B33">
         <v>10000</v>
@@ -5799,12 +5812,12 @@
         <v>485</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="7" t="s">
-        <v>155</v>
+      <c r="A34" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="B34">
         <v>20000</v>
@@ -5813,7 +5826,7 @@
         <v>535</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5824,12 +5837,2542 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>8+2*A2</f>
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <f>TRUNC(10*A2^2.4+A2*10-10,-1)</f>
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <f>12+2*A2</f>
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <f>5+1*A2</f>
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <f>70+10*A2</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">8+2*A3</f>
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="1">TRUNC(10*A3^2.4+A3*10-10,-1)</f>
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="2">12+2*A3</f>
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="3">5+1*A3</f>
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="4">70+10*A3</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>780</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>1120</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>1540</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>2030</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>3250</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>4830</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>6780</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>7910</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>9130</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>10460</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>11900</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>13440</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>15100</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>16870</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>18760</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>20760</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>22880</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>25130</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>27500</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>29990</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>32620</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>35370</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>38250</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>41270</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>44410</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>47700</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>51120</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>54690</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>58390</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>62240</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>66220</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>70360</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>74640</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>79070</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>83650</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>88390</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>93270</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>98310</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="4"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>103500</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="4"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>108850</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="4"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>114360</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="4"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>120030</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="4"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>125860</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="4"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>131850</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="4"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>138000</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>144320</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="4"/>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>150800</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>157460</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="4"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>164270</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="4"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>171260</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="4"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>178420</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="4"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>185750</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="4"/>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>193260</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="4"/>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>200930</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="4"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>208780</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>216810</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="4"/>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>225020</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B101" si="5">8+2*A67</f>
+        <v>140</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C100" si="6">TRUNC(10*A67^2.4+A67*10-10,-1)</f>
+        <v>233400</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D101" si="7">12+2*A67</f>
+        <v>144</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E101" si="8">5+1*A67</f>
+        <v>71</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F101" si="9">70+10*A67</f>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="6"/>
+        <v>241970</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="7"/>
+        <v>146</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="9"/>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="6"/>
+        <v>250710</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="7"/>
+        <v>148</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="8"/>
+        <v>73</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="9"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="5"/>
+        <v>146</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="6"/>
+        <v>259640</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="9"/>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="6"/>
+        <v>268750</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="7"/>
+        <v>152</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="9"/>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="6"/>
+        <v>278040</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="7"/>
+        <v>154</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="9"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="5"/>
+        <v>152</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="6"/>
+        <v>287520</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="7"/>
+        <v>156</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="8"/>
+        <v>77</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="9"/>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="5"/>
+        <v>154</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="6"/>
+        <v>297180</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="7"/>
+        <v>158</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="9"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="6"/>
+        <v>307030</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="9"/>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="6"/>
+        <v>317070</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="7"/>
+        <v>162</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="9"/>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="6"/>
+        <v>327300</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="7"/>
+        <v>164</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="8"/>
+        <v>81</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="9"/>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="6"/>
+        <v>337710</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="7"/>
+        <v>166</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="9"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="5"/>
+        <v>164</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="6"/>
+        <v>348320</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="7"/>
+        <v>168</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="8"/>
+        <v>83</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="9"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="6"/>
+        <v>359120</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="7"/>
+        <v>170</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="9"/>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="6"/>
+        <v>370120</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="7"/>
+        <v>172</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="8"/>
+        <v>85</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="9"/>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="6"/>
+        <v>381300</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="7"/>
+        <v>174</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="8"/>
+        <v>86</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="9"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="5"/>
+        <v>172</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="6"/>
+        <v>392690</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="7"/>
+        <v>176</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="9"/>
+        <v>890</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="5"/>
+        <v>174</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="6"/>
+        <v>404260</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="7"/>
+        <v>178</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="9"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="5"/>
+        <v>176</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="6"/>
+        <v>416040</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="9"/>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="5"/>
+        <v>178</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="6"/>
+        <v>428010</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="7"/>
+        <v>182</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="9"/>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="6"/>
+        <v>440180</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="7"/>
+        <v>184</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="9"/>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="5"/>
+        <v>182</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="6"/>
+        <v>452550</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="7"/>
+        <v>186</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="9"/>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="5"/>
+        <v>184</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="6"/>
+        <v>465120</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="7"/>
+        <v>188</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="8"/>
+        <v>93</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="9"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="5"/>
+        <v>186</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="6"/>
+        <v>477890</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="7"/>
+        <v>190</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="9"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="5"/>
+        <v>188</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="6"/>
+        <v>490870</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="7"/>
+        <v>192</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="9"/>
+        <v>970</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="6"/>
+        <v>504050</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="7"/>
+        <v>194</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="8"/>
+        <v>96</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="9"/>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="5"/>
+        <v>192</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="6"/>
+        <v>517430</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="7"/>
+        <v>196</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="8"/>
+        <v>97</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="9"/>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="5"/>
+        <v>194</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="6"/>
+        <v>531020</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="7"/>
+        <v>198</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="8"/>
+        <v>98</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="6"/>
+        <v>544810</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="9"/>
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="5"/>
+        <v>198</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="6"/>
+        <v>558810</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="7"/>
+        <v>202</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="9"/>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="6"/>
+        <v>573020</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="7"/>
+        <v>204</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="8"/>
+        <v>101</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="9"/>
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="5"/>
+        <v>202</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="6"/>
+        <v>587430</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="7"/>
+        <v>206</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="8"/>
+        <v>102</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="9"/>
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="5"/>
+        <v>204</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="6"/>
+        <v>602060</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="7"/>
+        <v>208</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="8"/>
+        <v>103</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="9"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="5"/>
+        <v>206</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="6"/>
+        <v>616900</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="8"/>
+        <v>104</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="9"/>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="5"/>
+        <v>208</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ref="C101" si="10">TRUNC(10*A101^2.6+A101*10-10,-1)</f>
+        <v>1585880</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="7"/>
+        <v>212</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="8"/>
+        <v>105</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="9"/>
+        <v>1070</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
